--- a/Tesztek2.xlsx
+++ b/Tesztek2.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Egyetem\Allamvizsga\university-timetable-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA81CA29-A207-4F53-9844-97D92718AAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E22AD7-1E6B-4879-945A-91FAB8EB0789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{54AEEB97-08E3-43B1-A23F-2A36EE594A9E}"/>
+    <workbookView xWindow="-23148" yWindow="-228" windowWidth="23256" windowHeight="12456" xr2:uid="{54AEEB97-08E3-43B1-A23F-2A36EE594A9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">5 osztály </t>
-  </si>
-  <si>
-    <t>13 tanár</t>
-  </si>
-  <si>
-    <t>3 terem</t>
-  </si>
-  <si>
-    <t>alpha= 0.01</t>
-  </si>
-  <si>
-    <t>I.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>Class fit</t>
   </si>
@@ -49,25 +33,73 @@
     <t>Teacher fit</t>
   </si>
   <si>
-    <t>Location fit</t>
-  </si>
-  <si>
     <t>Elapsed time</t>
   </si>
   <si>
-    <t>t = 150000</t>
-  </si>
-  <si>
-    <t>t min = 2.5</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
-    <t>t = 200000</t>
+    <t>atlag</t>
+  </si>
+  <si>
+    <t>activeszam</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>szoras</t>
+  </si>
+  <si>
+    <t>5 osztaly</t>
+  </si>
+  <si>
+    <t>13 tanar</t>
+  </si>
+  <si>
+    <t>9 terem</t>
+  </si>
+  <si>
+    <t>t = 100000</t>
+  </si>
+  <si>
+    <t>tmin = 2.5</t>
+  </si>
+  <si>
+    <t>alpha=0.01</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>12 osztaly</t>
+  </si>
+  <si>
+    <t>26 tanar</t>
+  </si>
+  <si>
+    <t>t= 200000</t>
+  </si>
+  <si>
+    <t>tmin = 2</t>
+  </si>
+  <si>
+    <t>location fit</t>
+  </si>
+  <si>
+    <t>elapsed time</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Osszesitett</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activeszam </t>
   </si>
 </sst>
 </file>
@@ -419,229 +451,583 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7335C568-6B74-4360-BC63-057D7E814E2A}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="F2:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="O4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="R4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>5311</v>
+      </c>
+      <c r="O5">
+        <v>12752</v>
+      </c>
+      <c r="P5">
+        <v>9000</v>
+      </c>
+      <c r="Q5">
+        <v>292</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(N5:N14)</f>
+        <v>5329.8</v>
+      </c>
+      <c r="H6">
+        <f>AVERAGE(O5:O14)</f>
+        <v>12734.9</v>
+      </c>
+      <c r="I6">
+        <f>AVERAGE(P5:P14)</f>
+        <v>9000</v>
+      </c>
+      <c r="J6">
+        <f>AVERAGE(Q5:Q14)</f>
+        <v>296.89999999999998</v>
+      </c>
+      <c r="N6">
+        <v>5424</v>
+      </c>
+      <c r="O6">
+        <v>12684</v>
+      </c>
+      <c r="P6">
+        <v>9000</v>
+      </c>
+      <c r="Q6">
+        <v>301</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>MEDIAN(N5:N14)</f>
+        <v>5310</v>
+      </c>
+      <c r="H7">
+        <f>MEDIAN(O5:O14)</f>
+        <v>12748.5</v>
+      </c>
+      <c r="I7">
+        <f>MEDIAN(P5:P14)</f>
+        <v>9000</v>
+      </c>
+      <c r="J7">
+        <f>MEDIAN(Q5:Q14)</f>
+        <v>297.5</v>
+      </c>
+      <c r="N7">
+        <v>5306</v>
+      </c>
+      <c r="O7">
+        <v>12748</v>
+      </c>
+      <c r="P7">
+        <v>9000</v>
+      </c>
+      <c r="Q7">
+        <v>298</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>STDEV(N5:N14)</f>
+        <v>45.460116830274664</v>
+      </c>
+      <c r="H8">
+        <f>STDEV(O5:O14)</f>
+        <v>28.730355607498726</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>STDEV(Q5:Q14)</f>
+        <v>4.3576242252962674</v>
+      </c>
+      <c r="N8">
+        <v>5304</v>
+      </c>
+      <c r="O8">
+        <v>12756</v>
+      </c>
+      <c r="P8">
+        <v>9000</v>
+      </c>
+      <c r="Q8">
+        <v>297</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="N9">
+        <v>5309</v>
+      </c>
+      <c r="O9">
+        <v>12760</v>
+      </c>
+      <c r="P9">
+        <v>9000</v>
+      </c>
+      <c r="Q9">
+        <v>302</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>5314</v>
+      </c>
+      <c r="O10">
+        <v>12752</v>
+      </c>
+      <c r="P10">
+        <v>9000</v>
+      </c>
+      <c r="Q10">
+        <v>296</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>5306</v>
+      </c>
+      <c r="O11">
+        <v>12748</v>
+      </c>
+      <c r="P11">
+        <v>9000</v>
+      </c>
+      <c r="Q11">
+        <v>299</v>
+      </c>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>5407</v>
+      </c>
+      <c r="O12">
+        <v>12749</v>
+      </c>
+      <c r="P12">
+        <v>9000</v>
+      </c>
+      <c r="Q12">
+        <v>292</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>5305</v>
+      </c>
+      <c r="O13">
+        <v>12690</v>
+      </c>
+      <c r="P13">
+        <v>9000</v>
+      </c>
+      <c r="Q13">
+        <v>302</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>5312</v>
+      </c>
+      <c r="O14">
+        <v>12710</v>
+      </c>
+      <c r="P14">
+        <v>9000</v>
+      </c>
+      <c r="Q14">
+        <v>290</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N19" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1</v>
+      </c>
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>21</v>
+      </c>
+      <c r="R19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>12808</v>
+      </c>
+      <c r="O20">
+        <v>25444</v>
+      </c>
+      <c r="P20">
+        <v>9000</v>
+      </c>
+      <c r="Q20">
+        <v>971</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="G21">
+        <f>AVERAGE(N20:N29)</f>
+        <v>12811.8</v>
+      </c>
+      <c r="H21">
+        <f>AVERAGE(O20:O29)</f>
+        <v>25444.2</v>
+      </c>
+      <c r="I21">
+        <f>AVERAGE(P20:P29)</f>
+        <v>9000</v>
+      </c>
+      <c r="J21">
+        <f>AVERAGE(Q20:Q29)</f>
+        <v>977.8</v>
+      </c>
+      <c r="N21">
+        <v>12816</v>
+      </c>
+      <c r="O21">
+        <v>25444</v>
+      </c>
+      <c r="P21">
+        <v>9000</v>
+      </c>
+      <c r="Q21">
+        <v>981</v>
+      </c>
+      <c r="R21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G22">
+        <f>MEDIAN(N20:N29)</f>
+        <v>12811</v>
+      </c>
+      <c r="H22">
+        <f>MEDIAN(O20:O29)</f>
+        <v>25444</v>
+      </c>
+      <c r="I22">
+        <f>MEDIAN(P20:P29)</f>
+        <v>9000</v>
+      </c>
+      <c r="J22">
+        <f>MEDIAN(Q20:Q29)</f>
+        <v>978</v>
+      </c>
+      <c r="N22">
+        <v>12814</v>
+      </c>
+      <c r="O22">
+        <v>25448</v>
+      </c>
+      <c r="P22">
+        <v>9000</v>
+      </c>
+      <c r="Q22">
+        <v>989</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4414</v>
-      </c>
-      <c r="B5">
-        <v>12684</v>
-      </c>
-      <c r="C5">
-        <v>3000</v>
-      </c>
-      <c r="D5">
-        <v>669451</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5416</v>
-      </c>
-      <c r="B6">
-        <v>12696</v>
-      </c>
-      <c r="C6">
-        <v>3000</v>
-      </c>
-      <c r="D6">
-        <v>682804</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>4380</v>
-      </c>
-      <c r="B7">
-        <v>12664</v>
-      </c>
-      <c r="C7">
-        <v>3000</v>
-      </c>
-      <c r="D7">
-        <v>664423</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5394</v>
-      </c>
-      <c r="B8">
-        <v>12684</v>
-      </c>
-      <c r="C8">
-        <v>3000</v>
-      </c>
-      <c r="D8">
-        <v>673899</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4402</v>
-      </c>
-      <c r="B9">
-        <v>12644</v>
-      </c>
-      <c r="C9">
-        <v>1990</v>
-      </c>
-      <c r="D9">
-        <v>666005</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5402</v>
-      </c>
-      <c r="B12">
-        <v>12636</v>
-      </c>
-      <c r="C12">
-        <v>3000</v>
-      </c>
-      <c r="D12">
-        <v>891015</v>
-      </c>
-      <c r="E12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5376</v>
-      </c>
-      <c r="B13">
-        <v>12688</v>
-      </c>
-      <c r="C13">
-        <v>3000</v>
-      </c>
-      <c r="D13">
-        <v>882992</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>5358</v>
-      </c>
-      <c r="B14">
-        <v>12680</v>
-      </c>
-      <c r="C14">
-        <v>3000</v>
-      </c>
-      <c r="D14">
-        <v>892943</v>
-      </c>
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4405</v>
-      </c>
-      <c r="B15">
-        <v>12686</v>
-      </c>
-      <c r="C15">
-        <v>3000</v>
-      </c>
-      <c r="D15">
-        <v>892456</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5364</v>
-      </c>
-      <c r="B16">
-        <v>12675</v>
-      </c>
-      <c r="C16">
-        <v>3000</v>
-      </c>
-      <c r="D16">
-        <v>895642</v>
-      </c>
-      <c r="E16" t="s">
-        <v>12</v>
+      <c r="G23">
+        <f>STDEV(N20:N29)</f>
+        <v>3.0477678535099892</v>
+      </c>
+      <c r="H23">
+        <f>STDEV(O20:O29)</f>
+        <v>3.0477678535099892</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>STDEV(Q20:Q29)</f>
+        <v>6.2503333244449184</v>
+      </c>
+      <c r="N23">
+        <v>12810</v>
+      </c>
+      <c r="O23">
+        <v>25440</v>
+      </c>
+      <c r="P23">
+        <v>9000</v>
+      </c>
+      <c r="Q23">
+        <v>969</v>
+      </c>
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
+      </c>
+      <c r="N24">
+        <v>12810</v>
+      </c>
+      <c r="O24">
+        <v>25448</v>
+      </c>
+      <c r="P24">
+        <v>9000</v>
+      </c>
+      <c r="Q24">
+        <v>977</v>
+      </c>
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>12808</v>
+      </c>
+      <c r="O25">
+        <v>25442</v>
+      </c>
+      <c r="P25">
+        <v>9000</v>
+      </c>
+      <c r="Q25">
+        <v>981</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>12814</v>
+      </c>
+      <c r="O26">
+        <v>25444</v>
+      </c>
+      <c r="P26">
+        <v>9000</v>
+      </c>
+      <c r="Q26">
+        <v>984</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>12816</v>
+      </c>
+      <c r="O27">
+        <v>25448</v>
+      </c>
+      <c r="P27">
+        <v>9000</v>
+      </c>
+      <c r="Q27">
+        <v>975</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>12812</v>
+      </c>
+      <c r="O28">
+        <v>25440</v>
+      </c>
+      <c r="P28">
+        <v>9000</v>
+      </c>
+      <c r="Q28">
+        <v>979</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>12810</v>
+      </c>
+      <c r="O29">
+        <v>25444</v>
+      </c>
+      <c r="P29">
+        <v>9000</v>
+      </c>
+      <c r="Q29">
+        <v>972</v>
+      </c>
+      <c r="R29" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
